--- a/biology/Zoologie/Halichoeres_chloropterus/Halichoeres_chloropterus.xlsx
+++ b/biology/Zoologie/Halichoeres_chloropterus/Halichoeres_chloropterus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halichoeres chloropterus est un poisson osseux de petite taille de la famille des Labridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique au centre-ouest de l'océan Pacifique.
 </t>
@@ -542,7 +556,9 @@
           <t>Description et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut être trouvée sur les récifs coralliens et les zones environnantes à des profondeurs de la surface à 10 m. Sa coloration varie en fonction de l'habitat dans lequel il vit, allant du vert brillant si près d'une zone de croissance d'algues ou vert sombre dans d'autres cas. Il peut atteindre une longueur totale de 19 cm.
 </t>
@@ -573,7 +589,9 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce ne fait face à aucune menace importante au-delà de la collecte occasionnelle pour des aquariums.
 </t>
